--- a/заказы/статистика филиалы/2023/10,23/04,10,23 КИ/дв 04,10,23 мррсч.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/04,10,23 КИ/дв 04,10,23 мррсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\04,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D5EEE-7C6A-4A07-9515-04DF166971B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B266E-0B57-46A8-8215-1DBACCE1E326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,10 +263,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2859,7 +2863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
